--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3767.875207224041</v>
+        <v>4169.136248470762</v>
       </c>
       <c r="AB2" t="n">
-        <v>5155.373085446661</v>
+        <v>5704.396144468225</v>
       </c>
       <c r="AC2" t="n">
-        <v>4663.351513783007</v>
+        <v>5159.976582610235</v>
       </c>
       <c r="AD2" t="n">
-        <v>3767875.207224041</v>
+        <v>4169136.248470762</v>
       </c>
       <c r="AE2" t="n">
-        <v>5155373.085446661</v>
+        <v>5704396.144468226</v>
       </c>
       <c r="AF2" t="n">
         <v>1.974188648318636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4663351.513783007</v>
+        <v>5159976.582610235</v>
       </c>
     </row>
     <row r="3">
@@ -3758,28 +3758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1866.438947128146</v>
+        <v>2120.804849511937</v>
       </c>
       <c r="AB3" t="n">
-        <v>2553.744108935707</v>
+        <v>2901.778758408826</v>
       </c>
       <c r="AC3" t="n">
-        <v>2310.01835538125</v>
+        <v>2624.837066378353</v>
       </c>
       <c r="AD3" t="n">
-        <v>1866438.947128146</v>
+        <v>2120804.849511937</v>
       </c>
       <c r="AE3" t="n">
-        <v>2553744.108935707</v>
+        <v>2901778.758408825</v>
       </c>
       <c r="AF3" t="n">
         <v>3.118586439693477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.33203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2310018.35538125</v>
+        <v>2624837.066378353</v>
       </c>
     </row>
     <row r="4">
@@ -3864,28 +3864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1534.759966876029</v>
+        <v>1750.040115015988</v>
       </c>
       <c r="AB4" t="n">
-        <v>2099.926295510871</v>
+        <v>2394.4820916858</v>
       </c>
       <c r="AC4" t="n">
-        <v>1899.512277132379</v>
+        <v>2165.95608153203</v>
       </c>
       <c r="AD4" t="n">
-        <v>1534759.966876029</v>
+        <v>1750040.115015988</v>
       </c>
       <c r="AE4" t="n">
-        <v>2099926.295510871</v>
+        <v>2394482.0916858</v>
       </c>
       <c r="AF4" t="n">
         <v>3.556143210568837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.13411458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1899512.27713238</v>
+        <v>2165956.081532029</v>
       </c>
     </row>
     <row r="5">
@@ -3970,28 +3970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1383.340236197349</v>
+        <v>1588.79769764818</v>
       </c>
       <c r="AB5" t="n">
-        <v>1892.747139829248</v>
+        <v>2173.863102729757</v>
       </c>
       <c r="AC5" t="n">
-        <v>1712.106009291239</v>
+        <v>1966.392659241256</v>
       </c>
       <c r="AD5" t="n">
-        <v>1383340.236197349</v>
+        <v>1588797.69764818</v>
       </c>
       <c r="AE5" t="n">
-        <v>1892747.139829248</v>
+        <v>2173863.102729757</v>
       </c>
       <c r="AF5" t="n">
         <v>3.795774852579916e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.34765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1712106.009291239</v>
+        <v>1966392.659241256</v>
       </c>
     </row>
     <row r="6">
@@ -4076,28 +4076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1294.44638057344</v>
+        <v>1499.936996413193</v>
       </c>
       <c r="AB6" t="n">
-        <v>1771.118644844486</v>
+        <v>2052.279971042588</v>
       </c>
       <c r="AC6" t="n">
-        <v>1602.085567161157</v>
+        <v>1856.413250999313</v>
       </c>
       <c r="AD6" t="n">
-        <v>1294446.38057344</v>
+        <v>1499936.996413193</v>
       </c>
       <c r="AE6" t="n">
-        <v>1771118.644844485</v>
+        <v>2052279.971042589</v>
       </c>
       <c r="AF6" t="n">
         <v>3.941868187649044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.81770833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1602085.567161157</v>
+        <v>1856413.250999313</v>
       </c>
     </row>
     <row r="7">
@@ -4182,28 +4182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1235.148045612898</v>
+        <v>1430.884305601084</v>
       </c>
       <c r="AB7" t="n">
-        <v>1689.984046893566</v>
+        <v>1957.799033083746</v>
       </c>
       <c r="AC7" t="n">
-        <v>1528.69434136555</v>
+        <v>1770.949441154433</v>
       </c>
       <c r="AD7" t="n">
-        <v>1235148.045612898</v>
+        <v>1430884.305601084</v>
       </c>
       <c r="AE7" t="n">
-        <v>1689984.046893566</v>
+        <v>1957799.033083746</v>
       </c>
       <c r="AF7" t="n">
         <v>4.0440853065753e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.80859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1528694.34136555</v>
+        <v>1770949.441154433</v>
       </c>
     </row>
     <row r="8">
@@ -4288,28 +4288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1196.815894443113</v>
+        <v>1382.730478772027</v>
       </c>
       <c r="AB8" t="n">
-        <v>1637.536306567908</v>
+        <v>1891.912842819323</v>
       </c>
       <c r="AC8" t="n">
-        <v>1481.252139765707</v>
+        <v>1711.351336416997</v>
       </c>
       <c r="AD8" t="n">
-        <v>1196815.894443113</v>
+        <v>1382730.478772027</v>
       </c>
       <c r="AE8" t="n">
-        <v>1637536.306567908</v>
+        <v>1891912.842819323</v>
       </c>
       <c r="AF8" t="n">
         <v>4.118096286552564e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.11197916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1481252.139765707</v>
+        <v>1711351.336416997</v>
       </c>
     </row>
     <row r="9">
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1153.106470502988</v>
+        <v>1339.088374639606</v>
       </c>
       <c r="AB9" t="n">
-        <v>1577.731144409339</v>
+        <v>1832.199790591595</v>
       </c>
       <c r="AC9" t="n">
-        <v>1427.154698346479</v>
+        <v>1657.337214086089</v>
       </c>
       <c r="AD9" t="n">
-        <v>1153106.470502988</v>
+        <v>1339088.374639606</v>
       </c>
       <c r="AE9" t="n">
-        <v>1577731.144409339</v>
+        <v>1832199.790591595</v>
       </c>
       <c r="AF9" t="n">
         <v>4.174749642561219e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.59765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1427154.698346479</v>
+        <v>1657337.214086089</v>
       </c>
     </row>
     <row r="10">
@@ -4500,28 +4500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1125.816329311144</v>
+        <v>1311.696748221277</v>
       </c>
       <c r="AB10" t="n">
-        <v>1540.3915692746</v>
+        <v>1794.721358892767</v>
       </c>
       <c r="AC10" t="n">
-        <v>1393.378759856177</v>
+        <v>1623.435671307288</v>
       </c>
       <c r="AD10" t="n">
-        <v>1125816.329311144</v>
+        <v>1311696.748221277</v>
       </c>
       <c r="AE10" t="n">
-        <v>1540391.5692746</v>
+        <v>1794721.358892767</v>
       </c>
       <c r="AF10" t="n">
         <v>4.218143702482743e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.20703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1393378.759856177</v>
+        <v>1623435.671307288</v>
       </c>
     </row>
     <row r="11">
@@ -4606,28 +4606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1091.699242741664</v>
+        <v>1277.646981459502</v>
       </c>
       <c r="AB11" t="n">
-        <v>1493.711066290606</v>
+        <v>1748.132965839614</v>
       </c>
       <c r="AC11" t="n">
-        <v>1351.153378560478</v>
+        <v>1581.293609099908</v>
       </c>
       <c r="AD11" t="n">
-        <v>1091699.242741664</v>
+        <v>1277646.981459502</v>
       </c>
       <c r="AE11" t="n">
-        <v>1493711.066290606</v>
+        <v>1748132.965839614</v>
       </c>
       <c r="AF11" t="n">
         <v>4.25141248175591e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.92057291666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1351153.378560478</v>
+        <v>1581293.609099908</v>
       </c>
     </row>
     <row r="12">
@@ -4712,28 +4712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1086.430522319366</v>
+        <v>1272.378261037204</v>
       </c>
       <c r="AB12" t="n">
-        <v>1486.502170569277</v>
+        <v>1740.924070118285</v>
       </c>
       <c r="AC12" t="n">
-        <v>1344.632489729044</v>
+        <v>1574.772720268474</v>
       </c>
       <c r="AD12" t="n">
-        <v>1086430.522319366</v>
+        <v>1272378.261037204</v>
       </c>
       <c r="AE12" t="n">
-        <v>1486502.170569277</v>
+        <v>1740924.070118285</v>
       </c>
       <c r="AF12" t="n">
         <v>4.25888590318684e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.85546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1344632.489729044</v>
+        <v>1574772.720268474</v>
       </c>
     </row>
     <row r="13">
@@ -4818,28 +4818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1090.696261343199</v>
+        <v>1276.644000061037</v>
       </c>
       <c r="AB13" t="n">
-        <v>1492.33874289281</v>
+        <v>1746.760642441818</v>
       </c>
       <c r="AC13" t="n">
-        <v>1349.9120277817</v>
+        <v>1580.05225832113</v>
       </c>
       <c r="AD13" t="n">
-        <v>1090696.2613432</v>
+        <v>1276644.000061037</v>
       </c>
       <c r="AE13" t="n">
-        <v>1492338.74289281</v>
+        <v>1746760.642441818</v>
       </c>
       <c r="AF13" t="n">
         <v>4.257439434522789e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.86197916666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1349912.0277817</v>
+        <v>1580052.25832113</v>
       </c>
     </row>
   </sheetData>
@@ -5115,28 +5115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2686.149915112499</v>
+        <v>3024.866639109941</v>
       </c>
       <c r="AB2" t="n">
-        <v>3675.308818427754</v>
+        <v>4138.755983328309</v>
       </c>
       <c r="AC2" t="n">
-        <v>3324.542503125193</v>
+        <v>3743.758921059805</v>
       </c>
       <c r="AD2" t="n">
-        <v>2686149.915112499</v>
+        <v>3024866.639109941</v>
       </c>
       <c r="AE2" t="n">
-        <v>3675308.818427754</v>
+        <v>4138755.98332831</v>
       </c>
       <c r="AF2" t="n">
         <v>2.564242662830293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3324542.503125194</v>
+        <v>3743758.921059805</v>
       </c>
     </row>
     <row r="3">
@@ -5221,28 +5221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1535.538024253189</v>
+        <v>1767.837038437003</v>
       </c>
       <c r="AB3" t="n">
-        <v>2100.990867939771</v>
+        <v>2418.832627455282</v>
       </c>
       <c r="AC3" t="n">
-        <v>1900.475248262802</v>
+        <v>2187.982636343864</v>
       </c>
       <c r="AD3" t="n">
-        <v>1535538.024253189</v>
+        <v>1767837.038437003</v>
       </c>
       <c r="AE3" t="n">
-        <v>2100990.867939771</v>
+        <v>2418832.627455282</v>
       </c>
       <c r="AF3" t="n">
         <v>3.690863423343428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.52994791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1900475.248262802</v>
+        <v>2187982.636343864</v>
       </c>
     </row>
     <row r="4">
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1297.438388130415</v>
+        <v>1510.342138595232</v>
       </c>
       <c r="AB4" t="n">
-        <v>1775.212441581997</v>
+        <v>2066.51674561853</v>
       </c>
       <c r="AC4" t="n">
-        <v>1605.788657683721</v>
+        <v>1869.291287791166</v>
       </c>
       <c r="AD4" t="n">
-        <v>1297438.388130415</v>
+        <v>1510342.138595233</v>
       </c>
       <c r="AE4" t="n">
-        <v>1775212.441581997</v>
+        <v>2066516.74561853</v>
       </c>
       <c r="AF4" t="n">
         <v>4.105795396250748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.82291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1605788.657683721</v>
+        <v>1869291.287791166</v>
       </c>
     </row>
     <row r="5">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1185.986994333672</v>
+        <v>1389.21019564838</v>
       </c>
       <c r="AB5" t="n">
-        <v>1622.719727700815</v>
+        <v>1900.778677314483</v>
       </c>
       <c r="AC5" t="n">
-        <v>1467.84963439049</v>
+        <v>1719.371028111217</v>
       </c>
       <c r="AD5" t="n">
-        <v>1185986.994333672</v>
+        <v>1389210.195648381</v>
       </c>
       <c r="AE5" t="n">
-        <v>1622719.727700815</v>
+        <v>1900778.677314483</v>
       </c>
       <c r="AF5" t="n">
         <v>4.329220304739303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.66796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1467849.63439049</v>
+        <v>1719371.028111217</v>
       </c>
     </row>
     <row r="6">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1118.789715011778</v>
+        <v>1312.265047368674</v>
       </c>
       <c r="AB6" t="n">
-        <v>1530.777445597862</v>
+        <v>1795.498930857824</v>
       </c>
       <c r="AC6" t="n">
-        <v>1384.68219464964</v>
+        <v>1624.139032895329</v>
       </c>
       <c r="AD6" t="n">
-        <v>1118789.715011778</v>
+        <v>1312265.047368674</v>
       </c>
       <c r="AE6" t="n">
-        <v>1530777.445597862</v>
+        <v>1795498.930857824</v>
       </c>
       <c r="AF6" t="n">
         <v>4.468498169771131e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.43098958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1384682.19464964</v>
+        <v>1624139.032895329</v>
       </c>
     </row>
     <row r="7">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1064.210759239069</v>
+        <v>1257.75341140367</v>
       </c>
       <c r="AB7" t="n">
-        <v>1456.100110456052</v>
+        <v>1720.913705646855</v>
       </c>
       <c r="AC7" t="n">
-        <v>1317.131959563466</v>
+        <v>1556.672116897474</v>
       </c>
       <c r="AD7" t="n">
-        <v>1064210.759239069</v>
+        <v>1257753.41140367</v>
       </c>
       <c r="AE7" t="n">
-        <v>1456100.110456052</v>
+        <v>1720913.705646855</v>
       </c>
       <c r="AF7" t="n">
         <v>4.559767376780624e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.66276041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1317131.959563466</v>
+        <v>1556672.116897474</v>
       </c>
     </row>
     <row r="8">
@@ -5751,28 +5751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1029.774499851395</v>
+        <v>1213.603448476964</v>
       </c>
       <c r="AB8" t="n">
-        <v>1408.982901141293</v>
+        <v>1660.505778611637</v>
       </c>
       <c r="AC8" t="n">
-        <v>1274.511550576289</v>
+        <v>1502.02943763544</v>
       </c>
       <c r="AD8" t="n">
-        <v>1029774.499851395</v>
+        <v>1213603.448476964</v>
       </c>
       <c r="AE8" t="n">
-        <v>1408982.901141293</v>
+        <v>1660505.778611637</v>
       </c>
       <c r="AF8" t="n">
         <v>4.625185767931937e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.12890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1274511.550576289</v>
+        <v>1502029.437635439</v>
       </c>
     </row>
     <row r="9">
@@ -5857,28 +5857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1023.81669023912</v>
+        <v>1207.64563886469</v>
       </c>
       <c r="AB9" t="n">
-        <v>1400.831163189769</v>
+        <v>1652.354040660113</v>
       </c>
       <c r="AC9" t="n">
-        <v>1267.137803053822</v>
+        <v>1494.655690112973</v>
       </c>
       <c r="AD9" t="n">
-        <v>1023816.690239121</v>
+        <v>1207645.63886469</v>
       </c>
       <c r="AE9" t="n">
-        <v>1400831.163189769</v>
+        <v>1652354.040660113</v>
       </c>
       <c r="AF9" t="n">
         <v>4.638111175861027e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.02473958333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1267137.803053822</v>
+        <v>1494655.690112973</v>
       </c>
     </row>
     <row r="10">
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1027.02629060432</v>
+        <v>1210.855239229888</v>
       </c>
       <c r="AB10" t="n">
-        <v>1405.222680007009</v>
+        <v>1656.745557477353</v>
       </c>
       <c r="AC10" t="n">
-        <v>1271.110199669558</v>
+        <v>1498.628086728708</v>
       </c>
       <c r="AD10" t="n">
-        <v>1027026.29060432</v>
+        <v>1210855.239229888</v>
       </c>
       <c r="AE10" t="n">
-        <v>1405222.680007009</v>
+        <v>1656745.557477353</v>
       </c>
       <c r="AF10" t="n">
         <v>4.638374959696314e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.02473958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1271110.199669558</v>
+        <v>1498628.086728708</v>
       </c>
     </row>
   </sheetData>
@@ -6260,28 +6260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1191.76116394367</v>
+        <v>1416.258560278325</v>
       </c>
       <c r="AB2" t="n">
-        <v>1630.620201299599</v>
+        <v>1937.787443090803</v>
       </c>
       <c r="AC2" t="n">
-        <v>1474.996097877391</v>
+        <v>1752.847729223974</v>
       </c>
       <c r="AD2" t="n">
-        <v>1191761.16394367</v>
+        <v>1416258.560278325</v>
       </c>
       <c r="AE2" t="n">
-        <v>1630620.201299599</v>
+        <v>1937787.443090803</v>
       </c>
       <c r="AF2" t="n">
         <v>5.128081316707931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.74479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1474996.097877391</v>
+        <v>1752847.729223974</v>
       </c>
     </row>
     <row r="3">
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>883.6829140618062</v>
+        <v>1070.691063629851</v>
       </c>
       <c r="AB3" t="n">
-        <v>1209.093948358085</v>
+        <v>1464.966748814372</v>
       </c>
       <c r="AC3" t="n">
-        <v>1093.699718900803</v>
+        <v>1325.152378401273</v>
       </c>
       <c r="AD3" t="n">
-        <v>883682.9140618062</v>
+        <v>1070691.063629851</v>
       </c>
       <c r="AE3" t="n">
-        <v>1209093.948358085</v>
+        <v>1464966.748814372</v>
       </c>
       <c r="AF3" t="n">
         <v>6.12844008591352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.11458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1093699.718900803</v>
+        <v>1325152.378401273</v>
       </c>
     </row>
     <row r="4">
@@ -6472,28 +6472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>856.2638311363323</v>
+        <v>1043.339300512082</v>
       </c>
       <c r="AB4" t="n">
-        <v>1171.577949454885</v>
+        <v>1427.542859842014</v>
       </c>
       <c r="AC4" t="n">
-        <v>1059.76419427889</v>
+        <v>1291.300172867679</v>
       </c>
       <c r="AD4" t="n">
-        <v>856263.8311363324</v>
+        <v>1043339.300512082</v>
       </c>
       <c r="AE4" t="n">
-        <v>1171577.949454885</v>
+        <v>1427542.859842014</v>
       </c>
       <c r="AF4" t="n">
         <v>6.219749977250653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.54166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1059764.19427889</v>
+        <v>1291300.172867679</v>
       </c>
     </row>
   </sheetData>
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1604.752051667504</v>
+        <v>1860.747279717653</v>
       </c>
       <c r="AB2" t="n">
-        <v>2195.69255375542</v>
+        <v>2545.956518486026</v>
       </c>
       <c r="AC2" t="n">
-        <v>1986.138738098856</v>
+        <v>2302.974001634134</v>
       </c>
       <c r="AD2" t="n">
-        <v>1604752.051667504</v>
+        <v>1860747.279717653</v>
       </c>
       <c r="AE2" t="n">
-        <v>2195692.55375542</v>
+        <v>2545956.518486026</v>
       </c>
       <c r="AF2" t="n">
         <v>3.940004305238547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.68880208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1986138.738098857</v>
+        <v>2302974.001634134</v>
       </c>
     </row>
     <row r="3">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1098.881392544241</v>
+        <v>1297.913880015813</v>
       </c>
       <c r="AB3" t="n">
-        <v>1503.538000504578</v>
+        <v>1775.863030556819</v>
       </c>
       <c r="AC3" t="n">
-        <v>1360.042443965258</v>
+        <v>1606.377155359893</v>
       </c>
       <c r="AD3" t="n">
-        <v>1098881.392544241</v>
+        <v>1297913.880015813</v>
       </c>
       <c r="AE3" t="n">
-        <v>1503538.000504578</v>
+        <v>1775863.030556819</v>
       </c>
       <c r="AF3" t="n">
         <v>5.003681116946549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1360042.443965258</v>
+        <v>1606377.155359893</v>
       </c>
     </row>
     <row r="4">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>958.5134012538534</v>
+        <v>1148.13063840465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1311.480322222346</v>
+        <v>1570.922991414174</v>
       </c>
       <c r="AC4" t="n">
-        <v>1186.314480943637</v>
+        <v>1420.996305917871</v>
       </c>
       <c r="AD4" t="n">
-        <v>958513.4012538535</v>
+        <v>1148130.63840465</v>
       </c>
       <c r="AE4" t="n">
-        <v>1311480.322222346</v>
+        <v>1570922.991414174</v>
       </c>
       <c r="AF4" t="n">
         <v>5.383110195463492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.56119791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1186314.480943637</v>
+        <v>1420996.305917871</v>
       </c>
     </row>
     <row r="5">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>907.362268141326</v>
+        <v>1096.945339873342</v>
       </c>
       <c r="AB5" t="n">
-        <v>1241.493085269057</v>
+        <v>1500.889007827638</v>
       </c>
       <c r="AC5" t="n">
-        <v>1123.006727657467</v>
+        <v>1357.64626743152</v>
       </c>
       <c r="AD5" t="n">
-        <v>907362.268141326</v>
+        <v>1096945.339873342</v>
       </c>
       <c r="AE5" t="n">
-        <v>1241493.085269057</v>
+        <v>1500889.007827638</v>
       </c>
       <c r="AF5" t="n">
         <v>5.509373989659046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.68229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1123006.727657467</v>
+        <v>1357646.26743152</v>
       </c>
     </row>
     <row r="6">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>911.666656291218</v>
+        <v>1101.249728023234</v>
       </c>
       <c r="AB6" t="n">
-        <v>1247.382539031943</v>
+        <v>1506.778461590523</v>
       </c>
       <c r="AC6" t="n">
-        <v>1128.334100219123</v>
+        <v>1362.973639993176</v>
       </c>
       <c r="AD6" t="n">
-        <v>911666.656291218</v>
+        <v>1101249.728023234</v>
       </c>
       <c r="AE6" t="n">
-        <v>1247382.539031943</v>
+        <v>1506778.461590523</v>
       </c>
       <c r="AF6" t="n">
         <v>5.507142053903066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.6953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1128334.100219123</v>
+        <v>1362973.639993176</v>
       </c>
     </row>
   </sheetData>
@@ -7490,28 +7490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>930.6950595025568</v>
+        <v>1134.188244289674</v>
       </c>
       <c r="AB2" t="n">
-        <v>1273.418039779599</v>
+        <v>1551.846392691046</v>
       </c>
       <c r="AC2" t="n">
-        <v>1151.884809316477</v>
+        <v>1403.740351002704</v>
       </c>
       <c r="AD2" t="n">
-        <v>930695.0595025568</v>
+        <v>1134188.244289674</v>
       </c>
       <c r="AE2" t="n">
-        <v>1273418.039779599</v>
+        <v>1551846.392691046</v>
       </c>
       <c r="AF2" t="n">
         <v>6.407397127890593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1151884.809316478</v>
+        <v>1403740.351002704</v>
       </c>
     </row>
     <row r="3">
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>818.8032860322436</v>
+        <v>1013.011062209403</v>
       </c>
       <c r="AB3" t="n">
-        <v>1120.322779000859</v>
+        <v>1386.046426208845</v>
       </c>
       <c r="AC3" t="n">
-        <v>1013.400745355912</v>
+        <v>1253.764100619849</v>
       </c>
       <c r="AD3" t="n">
-        <v>818803.2860322436</v>
+        <v>1013011.062209403</v>
       </c>
       <c r="AE3" t="n">
-        <v>1120322.779000859</v>
+        <v>1386046.426208845</v>
       </c>
       <c r="AF3" t="n">
         <v>6.897419206514317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.8046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1013400.745355912</v>
+        <v>1253764.100619849</v>
       </c>
     </row>
   </sheetData>
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2926.483587981899</v>
+        <v>3275.936690302101</v>
       </c>
       <c r="AB2" t="n">
-        <v>4004.143952421026</v>
+        <v>4482.281103798367</v>
       </c>
       <c r="AC2" t="n">
-        <v>3621.994073453146</v>
+        <v>4054.498486172721</v>
       </c>
       <c r="AD2" t="n">
-        <v>2926483.587981899</v>
+        <v>3275936.690302101</v>
       </c>
       <c r="AE2" t="n">
-        <v>4004143.952421026</v>
+        <v>4482281.103798366</v>
       </c>
       <c r="AF2" t="n">
         <v>2.397530608421012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3621994.073453146</v>
+        <v>4054498.486172721</v>
       </c>
     </row>
     <row r="3">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1616.613050284022</v>
+        <v>1849.52585382938</v>
       </c>
       <c r="AB3" t="n">
-        <v>2211.92129533287</v>
+        <v>2530.602868531319</v>
       </c>
       <c r="AC3" t="n">
-        <v>2000.818631357336</v>
+        <v>2289.085682482123</v>
       </c>
       <c r="AD3" t="n">
-        <v>1616613.050284022</v>
+        <v>1849525.85382938</v>
       </c>
       <c r="AE3" t="n">
-        <v>2211921.29533287</v>
+        <v>2530602.868531319</v>
       </c>
       <c r="AF3" t="n">
         <v>3.52988374847298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.47395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2000818.631357336</v>
+        <v>2289085.682482122</v>
       </c>
     </row>
     <row r="4">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1356.427553018001</v>
+        <v>1569.888333746924</v>
       </c>
       <c r="AB4" t="n">
-        <v>1855.924019399477</v>
+        <v>2147.9904768178</v>
       </c>
       <c r="AC4" t="n">
-        <v>1678.797235793711</v>
+        <v>1942.989280433877</v>
       </c>
       <c r="AD4" t="n">
-        <v>1356427.553018001</v>
+        <v>1569888.333746924</v>
       </c>
       <c r="AE4" t="n">
-        <v>1855924.019399477</v>
+        <v>2147990.4768178</v>
       </c>
       <c r="AF4" t="n">
         <v>3.956157174234757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.36328124999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1678797.235793711</v>
+        <v>1942989.280433877</v>
       </c>
     </row>
     <row r="5">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1240.28928680229</v>
+        <v>1434.400540971121</v>
       </c>
       <c r="AB5" t="n">
-        <v>1697.018519904446</v>
+        <v>1962.610101442387</v>
       </c>
       <c r="AC5" t="n">
-        <v>1535.057454145217</v>
+        <v>1775.301347901303</v>
       </c>
       <c r="AD5" t="n">
-        <v>1240289.28680229</v>
+        <v>1434400.540971121</v>
       </c>
       <c r="AE5" t="n">
-        <v>1697018.519904446</v>
+        <v>1962610.101442387</v>
       </c>
       <c r="AF5" t="n">
         <v>4.181907050075989e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.07161458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1535057.454145217</v>
+        <v>1775301.347901303</v>
       </c>
     </row>
     <row r="6">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1159.542319208532</v>
+        <v>1353.686727766287</v>
       </c>
       <c r="AB6" t="n">
-        <v>1586.536956537871</v>
+        <v>1852.173901373405</v>
       </c>
       <c r="AC6" t="n">
-        <v>1435.120096124499</v>
+        <v>1675.405023768724</v>
       </c>
       <c r="AD6" t="n">
-        <v>1159542.319208532</v>
+        <v>1353686.727766287</v>
       </c>
       <c r="AE6" t="n">
-        <v>1586536.95653787</v>
+        <v>1852173.901373405</v>
       </c>
       <c r="AF6" t="n">
         <v>4.323998191996581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.75651041666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1435120.096124499</v>
+        <v>1675405.023768724</v>
       </c>
     </row>
     <row r="7">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1105.95875897395</v>
+        <v>1300.069002112924</v>
       </c>
       <c r="AB7" t="n">
-        <v>1513.221565485077</v>
+        <v>1778.811763687363</v>
       </c>
       <c r="AC7" t="n">
-        <v>1368.801823094986</v>
+        <v>1609.044465539031</v>
       </c>
       <c r="AD7" t="n">
-        <v>1105958.75897395</v>
+        <v>1300069.002112924</v>
       </c>
       <c r="AE7" t="n">
-        <v>1513221.565485077</v>
+        <v>1778811.763687363</v>
       </c>
       <c r="AF7" t="n">
         <v>4.414092213141884e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.96875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1368801.823094986</v>
+        <v>1609044.465539031</v>
       </c>
     </row>
     <row r="8">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1066.061889538382</v>
+        <v>1250.430049589605</v>
       </c>
       <c r="AB8" t="n">
-        <v>1458.632908597676</v>
+        <v>1710.89355892893</v>
       </c>
       <c r="AC8" t="n">
-        <v>1319.423031005258</v>
+        <v>1547.608278918943</v>
       </c>
       <c r="AD8" t="n">
-        <v>1066061.889538382</v>
+        <v>1250430.049589605</v>
       </c>
       <c r="AE8" t="n">
-        <v>1458632.908597676</v>
+        <v>1710893.55892893</v>
       </c>
       <c r="AF8" t="n">
         <v>4.491830482815832e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.31119791666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1319423.031005258</v>
+        <v>1547608.278918943</v>
       </c>
     </row>
     <row r="9">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1032.613176218275</v>
+        <v>1226.689253938468</v>
       </c>
       <c r="AB9" t="n">
-        <v>1412.866903380021</v>
+        <v>1678.41035494906</v>
       </c>
       <c r="AC9" t="n">
-        <v>1278.024869092584</v>
+        <v>1518.225226336449</v>
       </c>
       <c r="AD9" t="n">
-        <v>1032613.176218275</v>
+        <v>1226689.253938468</v>
       </c>
       <c r="AE9" t="n">
-        <v>1412866.903380021</v>
+        <v>1678410.35494906</v>
       </c>
       <c r="AF9" t="n">
         <v>4.530957029141792e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.98567708333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1278024.869092584</v>
+        <v>1518225.226336449</v>
       </c>
     </row>
     <row r="10">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1032.477449557378</v>
+        <v>1216.912929416306</v>
       </c>
       <c r="AB10" t="n">
-        <v>1412.681196174744</v>
+        <v>1665.033956436839</v>
       </c>
       <c r="AC10" t="n">
-        <v>1277.856885522337</v>
+        <v>1506.125452524342</v>
       </c>
       <c r="AD10" t="n">
-        <v>1032477.449557378</v>
+        <v>1216912.929416306</v>
       </c>
       <c r="AE10" t="n">
-        <v>1412681.196174744</v>
+        <v>1665033.956436839</v>
       </c>
       <c r="AF10" t="n">
         <v>4.537392316366457e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.93359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1277856.885522337</v>
+        <v>1506125.452524342</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>818.0133549972004</v>
+        <v>1010.891755396413</v>
       </c>
       <c r="AB2" t="n">
-        <v>1119.241960509415</v>
+        <v>1383.146697130095</v>
       </c>
       <c r="AC2" t="n">
-        <v>1012.423078664353</v>
+        <v>1251.14111761458</v>
       </c>
       <c r="AD2" t="n">
-        <v>818013.3549972004</v>
+        <v>1010891.755396414</v>
       </c>
       <c r="AE2" t="n">
-        <v>1119241.960509415</v>
+        <v>1383146.697130095</v>
       </c>
       <c r="AF2" t="n">
         <v>7.281266354395778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.25651041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1012423.078664353</v>
+        <v>1251141.11761458</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.88487707147</v>
+        <v>1006.951784803955</v>
       </c>
       <c r="AB3" t="n">
-        <v>1101.278997823862</v>
+        <v>1377.755855546258</v>
       </c>
       <c r="AC3" t="n">
-        <v>996.1744759263329</v>
+        <v>1246.264770385411</v>
       </c>
       <c r="AD3" t="n">
-        <v>804884.87707147</v>
+        <v>1006951.784803955</v>
       </c>
       <c r="AE3" t="n">
-        <v>1101278.997823862</v>
+        <v>1377755.855546258</v>
       </c>
       <c r="AF3" t="n">
         <v>7.336637201197266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.94401041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>996174.4759263329</v>
+        <v>1246264.770385411</v>
       </c>
     </row>
   </sheetData>
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2094.937051403279</v>
+        <v>2382.488879684588</v>
       </c>
       <c r="AB2" t="n">
-        <v>2866.385295829848</v>
+        <v>3259.826393175862</v>
       </c>
       <c r="AC2" t="n">
-        <v>2592.821506192877</v>
+        <v>2948.713137406112</v>
       </c>
       <c r="AD2" t="n">
-        <v>2094937.051403279</v>
+        <v>2382488.879684588</v>
       </c>
       <c r="AE2" t="n">
-        <v>2866385.295829848</v>
+        <v>3259826.393175861</v>
       </c>
       <c r="AF2" t="n">
         <v>3.1465104174654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.34895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2592821.506192877</v>
+        <v>2948713.137406112</v>
       </c>
     </row>
     <row r="3">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1309.689318144889</v>
+        <v>1530.155194329967</v>
       </c>
       <c r="AB3" t="n">
-        <v>1791.974704500687</v>
+        <v>2093.625842565124</v>
       </c>
       <c r="AC3" t="n">
-        <v>1620.951153755434</v>
+        <v>1893.813130573032</v>
       </c>
       <c r="AD3" t="n">
-        <v>1309689.318144889</v>
+        <v>1530155.194329967</v>
       </c>
       <c r="AE3" t="n">
-        <v>1791974.704500687</v>
+        <v>2093625.842565123</v>
       </c>
       <c r="AF3" t="n">
         <v>4.24678516326278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.97135416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1620951.153755435</v>
+        <v>1893813.130573032</v>
       </c>
     </row>
     <row r="4">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1133.688248193128</v>
+        <v>1325.389804057284</v>
       </c>
       <c r="AB4" t="n">
-        <v>1551.162275973481</v>
+        <v>1813.45680198258</v>
       </c>
       <c r="AC4" t="n">
-        <v>1403.121525424499</v>
+        <v>1640.383030003969</v>
       </c>
       <c r="AD4" t="n">
-        <v>1133688.248193128</v>
+        <v>1325389.804057284</v>
       </c>
       <c r="AE4" t="n">
-        <v>1551162.275973481</v>
+        <v>1813456.80198258</v>
       </c>
       <c r="AF4" t="n">
         <v>4.651213576081943e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.14973958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1403121.525424499</v>
+        <v>1640383.030003969</v>
       </c>
     </row>
     <row r="5">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1040.155976241069</v>
+        <v>1231.789201267664</v>
       </c>
       <c r="AB5" t="n">
-        <v>1423.187295136059</v>
+        <v>1685.388327878663</v>
       </c>
       <c r="AC5" t="n">
-        <v>1287.360297144187</v>
+        <v>1524.537231323297</v>
       </c>
       <c r="AD5" t="n">
-        <v>1040155.976241069</v>
+        <v>1231789.201267664</v>
       </c>
       <c r="AE5" t="n">
-        <v>1423187.295136059</v>
+        <v>1685388.327878663</v>
       </c>
       <c r="AF5" t="n">
         <v>4.858877527061428e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.43098958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1287360.297144187</v>
+        <v>1524537.231323297</v>
       </c>
     </row>
     <row r="6">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>978.2139690741026</v>
+        <v>1160.292915735885</v>
       </c>
       <c r="AB6" t="n">
-        <v>1338.435508241723</v>
+        <v>1587.563955820577</v>
       </c>
       <c r="AC6" t="n">
-        <v>1210.697101841166</v>
+        <v>1436.049080037067</v>
       </c>
       <c r="AD6" t="n">
-        <v>978213.9690741026</v>
+        <v>1160292.915735885</v>
       </c>
       <c r="AE6" t="n">
-        <v>1338435.508241723</v>
+        <v>1587563.955820577</v>
       </c>
       <c r="AF6" t="n">
         <v>4.983361166184489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.47395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1210697.101841166</v>
+        <v>1436049.080037067</v>
       </c>
     </row>
     <row r="7">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>967.3120410654915</v>
+        <v>1149.390987727274</v>
       </c>
       <c r="AB7" t="n">
-        <v>1323.519009381222</v>
+        <v>1572.647456960076</v>
       </c>
       <c r="AC7" t="n">
-        <v>1197.204212696474</v>
+        <v>1422.556190892374</v>
       </c>
       <c r="AD7" t="n">
-        <v>967312.0410654915</v>
+        <v>1149390.987727274</v>
       </c>
       <c r="AE7" t="n">
-        <v>1323519.009381222</v>
+        <v>1572647.456960076</v>
       </c>
       <c r="AF7" t="n">
         <v>5.012044032341877e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.25911458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1197204.212696474</v>
+        <v>1422556.190892374</v>
       </c>
     </row>
     <row r="8">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>970.185310748013</v>
+        <v>1152.264257409796</v>
       </c>
       <c r="AB8" t="n">
-        <v>1327.45034372056</v>
+        <v>1576.578791299414</v>
       </c>
       <c r="AC8" t="n">
-        <v>1200.760346004128</v>
+        <v>1426.112324200028</v>
       </c>
       <c r="AD8" t="n">
-        <v>970185.310748013</v>
+        <v>1152264.257409796</v>
       </c>
       <c r="AE8" t="n">
-        <v>1327450.34372056</v>
+        <v>1576578.791299414</v>
       </c>
       <c r="AF8" t="n">
         <v>5.013478175649747e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.24609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1200760.346004128</v>
+        <v>1426112.324200028</v>
       </c>
     </row>
   </sheetData>
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2478.386851167331</v>
+        <v>2796.737184825254</v>
       </c>
       <c r="AB2" t="n">
-        <v>3391.038228478471</v>
+        <v>3826.619199614767</v>
       </c>
       <c r="AC2" t="n">
-        <v>3067.402299304403</v>
+        <v>3461.412033897167</v>
       </c>
       <c r="AD2" t="n">
-        <v>2478386.851167331</v>
+        <v>2796737.184825254</v>
       </c>
       <c r="AE2" t="n">
-        <v>3391038.228478471</v>
+        <v>3826619.199614767</v>
       </c>
       <c r="AF2" t="n">
         <v>2.741523619737139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3067402.299304403</v>
+        <v>3461412.033897167</v>
       </c>
     </row>
     <row r="3">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1457.812861856902</v>
+        <v>1689.370701421659</v>
       </c>
       <c r="AB3" t="n">
-        <v>1994.643871757013</v>
+        <v>2311.471523460413</v>
       </c>
       <c r="AC3" t="n">
-        <v>1804.27786013678</v>
+        <v>2090.867925432009</v>
       </c>
       <c r="AD3" t="n">
-        <v>1457812.861856902</v>
+        <v>1689370.701421659</v>
       </c>
       <c r="AE3" t="n">
-        <v>1994643.871757013</v>
+        <v>2311471.523460413</v>
       </c>
       <c r="AF3" t="n">
         <v>3.863203686552364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1804277.860136779</v>
+        <v>2090867.925432009</v>
       </c>
     </row>
     <row r="4">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1245.41328404207</v>
+        <v>1447.984697917614</v>
       </c>
       <c r="AB4" t="n">
-        <v>1704.029398982716</v>
+        <v>1981.196544267286</v>
       </c>
       <c r="AC4" t="n">
-        <v>1541.399224764088</v>
+        <v>1792.11392670923</v>
       </c>
       <c r="AD4" t="n">
-        <v>1245413.28404207</v>
+        <v>1447984.697917614</v>
       </c>
       <c r="AE4" t="n">
-        <v>1704029.398982716</v>
+        <v>1981196.544267286</v>
       </c>
       <c r="AF4" t="n">
         <v>4.274730044640499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.23697916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1541399.224764088</v>
+        <v>1792113.92670923</v>
       </c>
     </row>
     <row r="5">
@@ -10692,28 +10692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1140.690976163063</v>
+        <v>1333.611299605177</v>
       </c>
       <c r="AB5" t="n">
-        <v>1560.743717320501</v>
+        <v>1824.705814897992</v>
       </c>
       <c r="AC5" t="n">
-        <v>1411.788527456997</v>
+        <v>1650.558452914823</v>
       </c>
       <c r="AD5" t="n">
-        <v>1140690.976163063</v>
+        <v>1333611.299605177</v>
       </c>
       <c r="AE5" t="n">
-        <v>1560743.717320501</v>
+        <v>1824705.814897992</v>
       </c>
       <c r="AF5" t="n">
         <v>4.494030274937466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.22526041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1411788.527456997</v>
+        <v>1650558.452914823</v>
       </c>
     </row>
     <row r="6">
@@ -10798,28 +10798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075.00951186508</v>
+        <v>1258.312910292545</v>
       </c>
       <c r="AB6" t="n">
-        <v>1470.875440206302</v>
+        <v>1721.679236709962</v>
       </c>
       <c r="AC6" t="n">
-        <v>1330.497152579658</v>
+        <v>1557.364586750348</v>
       </c>
       <c r="AD6" t="n">
-        <v>1075009.51186508</v>
+        <v>1258312.910292545</v>
       </c>
       <c r="AE6" t="n">
-        <v>1470875.440206302</v>
+        <v>1721679.236709962</v>
       </c>
       <c r="AF6" t="n">
         <v>4.629400787466457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.07291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1330497.152579658</v>
+        <v>1557364.586750348</v>
       </c>
     </row>
     <row r="7">
@@ -10904,28 +10904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1020.271969423976</v>
+        <v>1203.541202432659</v>
       </c>
       <c r="AB7" t="n">
-        <v>1395.981119788442</v>
+        <v>1646.738169658854</v>
       </c>
       <c r="AC7" t="n">
-        <v>1262.75064098764</v>
+        <v>1489.575789958149</v>
       </c>
       <c r="AD7" t="n">
-        <v>1020271.969423976</v>
+        <v>1203541.202432659</v>
       </c>
       <c r="AE7" t="n">
-        <v>1395981.119788442</v>
+        <v>1646738.169658854</v>
       </c>
       <c r="AF7" t="n">
         <v>4.723077182136519e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.31770833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1262750.64098764</v>
+        <v>1489575.789958149</v>
       </c>
     </row>
     <row r="8">
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1003.764856973792</v>
+        <v>1187.034089982476</v>
       </c>
       <c r="AB8" t="n">
-        <v>1373.395360291697</v>
+        <v>1624.152410162108</v>
       </c>
       <c r="AC8" t="n">
-        <v>1242.320434677951</v>
+        <v>1469.14558364846</v>
       </c>
       <c r="AD8" t="n">
-        <v>1003764.856973792</v>
+        <v>1187034.089982476</v>
       </c>
       <c r="AE8" t="n">
-        <v>1373395.360291697</v>
+        <v>1624152.410162108</v>
       </c>
       <c r="AF8" t="n">
         <v>4.752317212842783e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.08984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1242320.434677951</v>
+        <v>1469145.58364846</v>
       </c>
     </row>
     <row r="9">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1007.159921642493</v>
+        <v>1190.429154651177</v>
       </c>
       <c r="AB9" t="n">
-        <v>1378.040637551096</v>
+        <v>1628.797687421507</v>
       </c>
       <c r="AC9" t="n">
-        <v>1246.522373195401</v>
+        <v>1473.34752216591</v>
       </c>
       <c r="AD9" t="n">
-        <v>1007159.921642493</v>
+        <v>1190429.154651177</v>
       </c>
       <c r="AE9" t="n">
-        <v>1378040.637551096</v>
+        <v>1628797.687421507</v>
       </c>
       <c r="AF9" t="n">
         <v>4.750151284642318e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1246522.373195401</v>
+        <v>1473347.52216591</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3465.69747124975</v>
+        <v>3846.312384698561</v>
       </c>
       <c r="AB2" t="n">
-        <v>4741.920175945768</v>
+        <v>5262.694292071354</v>
       </c>
       <c r="AC2" t="n">
-        <v>4289.357969680092</v>
+        <v>4760.430135073695</v>
       </c>
       <c r="AD2" t="n">
-        <v>3465697.47124975</v>
+        <v>3846312.384698561</v>
       </c>
       <c r="AE2" t="n">
-        <v>4741920.175945768</v>
+        <v>5262694.292071354</v>
       </c>
       <c r="AF2" t="n">
         <v>2.10603166292537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.08723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4289357.969680091</v>
+        <v>4760430.135073695</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1782.857147461561</v>
+        <v>2026.826536654356</v>
       </c>
       <c r="AB3" t="n">
-        <v>2439.383803263126</v>
+        <v>2773.193484726532</v>
       </c>
       <c r="AC3" t="n">
-        <v>2206.572436776363</v>
+        <v>2508.523790745732</v>
       </c>
       <c r="AD3" t="n">
-        <v>1782857.147461561</v>
+        <v>2026826.536654355</v>
       </c>
       <c r="AE3" t="n">
-        <v>2439383.803263126</v>
+        <v>2773193.484726532</v>
       </c>
       <c r="AF3" t="n">
         <v>3.244081260841335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2206572.436776363</v>
+        <v>2508523.790745732</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1471.077791412696</v>
+        <v>1685.860160901663</v>
       </c>
       <c r="AB4" t="n">
-        <v>2012.79353358264</v>
+        <v>2306.668247046836</v>
       </c>
       <c r="AC4" t="n">
-        <v>1820.695343710979</v>
+        <v>2086.523066977903</v>
       </c>
       <c r="AD4" t="n">
-        <v>1471077.791412696</v>
+        <v>1685860.160901662</v>
       </c>
       <c r="AE4" t="n">
-        <v>2012793.53358264</v>
+        <v>2306668.247046836</v>
       </c>
       <c r="AF4" t="n">
         <v>3.680202343779719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.54166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1820695.343710979</v>
+        <v>2086523.066977903</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1329.332749636694</v>
+        <v>1544.012622869318</v>
       </c>
       <c r="AB5" t="n">
-        <v>1818.85171407481</v>
+        <v>2112.586187639263</v>
       </c>
       <c r="AC5" t="n">
-        <v>1645.263059257924</v>
+        <v>1910.963926924308</v>
       </c>
       <c r="AD5" t="n">
-        <v>1329332.749636694</v>
+        <v>1544012.622869318</v>
       </c>
       <c r="AE5" t="n">
-        <v>1818851.714074811</v>
+        <v>2112586.187639263</v>
       </c>
       <c r="AF5" t="n">
         <v>3.914752790755046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.93098958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1645263.059257924</v>
+        <v>1910963.926924308</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1253.333174426947</v>
+        <v>1448.488388735886</v>
       </c>
       <c r="AB6" t="n">
-        <v>1714.86574240821</v>
+        <v>1981.885716266117</v>
       </c>
       <c r="AC6" t="n">
-        <v>1551.201362781956</v>
+        <v>1792.737325099751</v>
       </c>
       <c r="AD6" t="n">
-        <v>1253333.174426947</v>
+        <v>1448488.388735886</v>
       </c>
       <c r="AE6" t="n">
-        <v>1714865.74240821</v>
+        <v>1981885.716266117</v>
       </c>
       <c r="AF6" t="n">
         <v>4.059962406406089e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.46614583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1551201.362781956</v>
+        <v>1792737.325099751</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1197.536074447554</v>
+        <v>1392.758608564197</v>
       </c>
       <c r="AB7" t="n">
-        <v>1638.521688622084</v>
+        <v>1905.633772410832</v>
       </c>
       <c r="AC7" t="n">
-        <v>1482.143478339625</v>
+        <v>1723.762759745739</v>
       </c>
       <c r="AD7" t="n">
-        <v>1197536.074447554</v>
+        <v>1392758.608564197</v>
       </c>
       <c r="AE7" t="n">
-        <v>1638521.688622084</v>
+        <v>1905633.772410832</v>
       </c>
       <c r="AF7" t="n">
         <v>4.155948423531354e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.5546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1482143.478339625</v>
+        <v>1723762.759745739</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1147.625314263392</v>
+        <v>1342.813682961254</v>
       </c>
       <c r="AB8" t="n">
-        <v>1570.231584630776</v>
+        <v>1837.296921786277</v>
       </c>
       <c r="AC8" t="n">
-        <v>1420.370886027485</v>
+        <v>1661.947882233419</v>
       </c>
       <c r="AD8" t="n">
-        <v>1147625.314263392</v>
+        <v>1342813.682961254</v>
       </c>
       <c r="AE8" t="n">
-        <v>1570231.584630776</v>
+        <v>1837296.921786277</v>
       </c>
       <c r="AF8" t="n">
         <v>4.233229473216824e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.8515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1420370.886027485</v>
+        <v>1661947.882233419</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1115.581049799613</v>
+        <v>1300.97342913178</v>
       </c>
       <c r="AB9" t="n">
-        <v>1526.38720829826</v>
+        <v>1780.049240635067</v>
       </c>
       <c r="AC9" t="n">
-        <v>1380.710955436175</v>
+        <v>1610.163839423656</v>
       </c>
       <c r="AD9" t="n">
-        <v>1115581.049799613</v>
+        <v>1300973.42913178</v>
       </c>
       <c r="AE9" t="n">
-        <v>1526387.20829826</v>
+        <v>1780049.240635067</v>
       </c>
       <c r="AF9" t="n">
         <v>4.28712931360255e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.37630208333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1380710.955436175</v>
+        <v>1610163.839423656</v>
       </c>
     </row>
     <row r="10">
@@ -12261,28 +12261,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1077.01860017653</v>
+        <v>1272.172803455612</v>
       </c>
       <c r="AB10" t="n">
-        <v>1473.624363468748</v>
+        <v>1740.642953991001</v>
       </c>
       <c r="AC10" t="n">
-        <v>1332.983722464075</v>
+        <v>1574.518433469829</v>
       </c>
       <c r="AD10" t="n">
-        <v>1077018.60017653</v>
+        <v>1272172.803455611</v>
       </c>
       <c r="AE10" t="n">
-        <v>1473624.363468749</v>
+        <v>1740642.953991001</v>
       </c>
       <c r="AF10" t="n">
         <v>4.331676670268378e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.9921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1332983.722464075</v>
+        <v>1574518.433469829</v>
       </c>
     </row>
     <row r="11">
@@ -12367,28 +12367,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1068.54410458631</v>
+        <v>1254.003803726182</v>
       </c>
       <c r="AB11" t="n">
-        <v>1462.029184733851</v>
+        <v>1715.783327001499</v>
       </c>
       <c r="AC11" t="n">
-        <v>1322.4951713137</v>
+        <v>1552.0313743895</v>
       </c>
       <c r="AD11" t="n">
-        <v>1068544.10458631</v>
+        <v>1254003.803726182</v>
       </c>
       <c r="AE11" t="n">
-        <v>1462029.184733851</v>
+        <v>1715783.327001499</v>
       </c>
       <c r="AF11" t="n">
         <v>4.340783035995647e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.9140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1322495.1713137</v>
+        <v>1552031.3743895</v>
       </c>
     </row>
     <row r="12">
@@ -12473,28 +12473,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1069.743377014917</v>
+        <v>1255.203076154789</v>
       </c>
       <c r="AB12" t="n">
-        <v>1463.670082178836</v>
+        <v>1717.424224446484</v>
       </c>
       <c r="AC12" t="n">
-        <v>1323.979463809549</v>
+        <v>1553.515666885349</v>
       </c>
       <c r="AD12" t="n">
-        <v>1069743.377014917</v>
+        <v>1255203.076154788</v>
       </c>
       <c r="AE12" t="n">
-        <v>1463670.082178836</v>
+        <v>1717424.224446484</v>
       </c>
       <c r="AF12" t="n">
         <v>4.34668986781874e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.86197916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1323979.463809549</v>
+        <v>1553515.666885349</v>
       </c>
     </row>
   </sheetData>
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1754.251017093917</v>
+        <v>2020.769627372906</v>
       </c>
       <c r="AB2" t="n">
-        <v>2400.243633680711</v>
+        <v>2764.906154235673</v>
       </c>
       <c r="AC2" t="n">
-        <v>2171.167750045321</v>
+        <v>2501.027391445579</v>
       </c>
       <c r="AD2" t="n">
-        <v>1754251.017093917</v>
+        <v>2020769.627372906</v>
       </c>
       <c r="AE2" t="n">
-        <v>2400243.633680711</v>
+        <v>2764906.154235673</v>
       </c>
       <c r="AF2" t="n">
         <v>3.646585079851584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.77864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2171167.750045321</v>
+        <v>2501027.391445579</v>
       </c>
     </row>
     <row r="3">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1173.687716413246</v>
+        <v>1382.986389530513</v>
       </c>
       <c r="AB3" t="n">
-        <v>1605.891313044241</v>
+        <v>1892.262991209069</v>
       </c>
       <c r="AC3" t="n">
-        <v>1452.627300009912</v>
+        <v>1711.668067135863</v>
       </c>
       <c r="AD3" t="n">
-        <v>1173687.716413246</v>
+        <v>1382986.389530513</v>
       </c>
       <c r="AE3" t="n">
-        <v>1605891.313044241</v>
+        <v>1892262.991209069</v>
       </c>
       <c r="AF3" t="n">
         <v>4.717088684698212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.34375000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1452627.300009912</v>
+        <v>1711668.067135863</v>
       </c>
     </row>
     <row r="4">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1021.926048415137</v>
+        <v>1212.219402972773</v>
       </c>
       <c r="AB4" t="n">
-        <v>1398.244303636964</v>
+        <v>1658.612066493024</v>
       </c>
       <c r="AC4" t="n">
-        <v>1264.797829746057</v>
+        <v>1500.316458743585</v>
       </c>
       <c r="AD4" t="n">
-        <v>1021926.048415137</v>
+        <v>1212219.402972773</v>
       </c>
       <c r="AE4" t="n">
-        <v>1398244.303636964</v>
+        <v>1658612.066493024</v>
       </c>
       <c r="AF4" t="n">
         <v>5.108594158984339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.1015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1264797.829746057</v>
+        <v>1500316.458743585</v>
       </c>
     </row>
     <row r="5">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>935.812673266524</v>
+        <v>1126.139182213084</v>
       </c>
       <c r="AB5" t="n">
-        <v>1280.420184704644</v>
+        <v>1540.833310858299</v>
       </c>
       <c r="AC5" t="n">
-        <v>1158.218679357448</v>
+        <v>1393.778342243116</v>
       </c>
       <c r="AD5" t="n">
-        <v>935812.673266524</v>
+        <v>1126139.182213084</v>
       </c>
       <c r="AE5" t="n">
-        <v>1280420.184704644</v>
+        <v>1540833.310858299</v>
       </c>
       <c r="AF5" t="n">
         <v>5.305267363543436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.64973958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1158218.679357448</v>
+        <v>1393778.342243116</v>
       </c>
     </row>
     <row r="6">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>930.050354167522</v>
+        <v>1110.925451962437</v>
       </c>
       <c r="AB6" t="n">
-        <v>1272.535925497813</v>
+        <v>1520.017213946955</v>
       </c>
       <c r="AC6" t="n">
-        <v>1151.086882783689</v>
+        <v>1374.948904405416</v>
       </c>
       <c r="AD6" t="n">
-        <v>930050.3541675219</v>
+        <v>1110925.451962437</v>
       </c>
       <c r="AE6" t="n">
-        <v>1272535.925497812</v>
+        <v>1520017.213946955</v>
       </c>
       <c r="AF6" t="n">
         <v>5.324597179280134e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.51302083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1151086.882783689</v>
+        <v>1374948.904405416</v>
       </c>
     </row>
   </sheetData>
@@ -13491,28 +13491,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1323.993845125925</v>
+        <v>1558.983013923315</v>
       </c>
       <c r="AB2" t="n">
-        <v>1811.546789387332</v>
+        <v>2133.069337126382</v>
       </c>
       <c r="AC2" t="n">
-        <v>1638.655306330092</v>
+        <v>1929.492193372657</v>
       </c>
       <c r="AD2" t="n">
-        <v>1323993.845125925</v>
+        <v>1558983.013923314</v>
       </c>
       <c r="AE2" t="n">
-        <v>1811546.789387332</v>
+        <v>2133069.337126382</v>
       </c>
       <c r="AF2" t="n">
         <v>4.666946001174477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.66536458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1638655.306330092</v>
+        <v>1929492.193372657</v>
       </c>
     </row>
     <row r="3">
@@ -13597,28 +13597,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>950.7179076311035</v>
+        <v>1148.069177535125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.814183934793</v>
+        <v>1570.838897941027</v>
       </c>
       <c r="AC3" t="n">
-        <v>1176.666303924229</v>
+        <v>1420.920238207775</v>
       </c>
       <c r="AD3" t="n">
-        <v>950717.9076311034</v>
+        <v>1148069.177535125</v>
       </c>
       <c r="AE3" t="n">
-        <v>1300814.183934793</v>
+        <v>1570838.897941027</v>
       </c>
       <c r="AF3" t="n">
         <v>5.69264841901502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.89583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1176666.303924229</v>
+        <v>1420920.238207775</v>
       </c>
     </row>
     <row r="4">
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>876.7652050396338</v>
+        <v>1055.315619236219</v>
       </c>
       <c r="AB4" t="n">
-        <v>1199.628833686166</v>
+        <v>1443.929387478271</v>
       </c>
       <c r="AC4" t="n">
-        <v>1085.1379414888</v>
+        <v>1306.122793304967</v>
       </c>
       <c r="AD4" t="n">
-        <v>876765.2050396338</v>
+        <v>1055315.619236219</v>
       </c>
       <c r="AE4" t="n">
-        <v>1199628.833686166</v>
+        <v>1443929.387478271</v>
       </c>
       <c r="AF4" t="n">
         <v>5.946631874861251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.19661458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1085137.9414888</v>
+        <v>1306122.793304967</v>
       </c>
     </row>
     <row r="5">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>880.6292061722543</v>
+        <v>1059.179620368839</v>
       </c>
       <c r="AB5" t="n">
-        <v>1204.915730503516</v>
+        <v>1449.216284295621</v>
       </c>
       <c r="AC5" t="n">
-        <v>1089.920264294109</v>
+        <v>1310.905116110276</v>
       </c>
       <c r="AD5" t="n">
-        <v>880629.2061722543</v>
+        <v>1059179.620368839</v>
       </c>
       <c r="AE5" t="n">
-        <v>1204915.730503516</v>
+        <v>1449216.284295621</v>
       </c>
       <c r="AF5" t="n">
         <v>5.944538604620759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.20963541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1089920.264294109</v>
+        <v>1310905.116110276</v>
       </c>
     </row>
   </sheetData>
@@ -24991,28 +24991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1061.634396840825</v>
+        <v>1275.637482028047</v>
       </c>
       <c r="AB2" t="n">
-        <v>1452.575017761686</v>
+        <v>1745.383480064639</v>
       </c>
       <c r="AC2" t="n">
-        <v>1313.943296768352</v>
+        <v>1578.806530388369</v>
       </c>
       <c r="AD2" t="n">
-        <v>1061634.396840825</v>
+        <v>1275637.482028047</v>
       </c>
       <c r="AE2" t="n">
-        <v>1452575.017761686</v>
+        <v>1745383.480064639</v>
       </c>
       <c r="AF2" t="n">
         <v>5.690188791332778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.82421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1313943.296768352</v>
+        <v>1578806.530388369</v>
       </c>
     </row>
     <row r="3">
@@ -25097,28 +25097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>841.2367827557158</v>
+        <v>1027.254645882277</v>
       </c>
       <c r="AB3" t="n">
-        <v>1151.01727891394</v>
+        <v>1405.535125772634</v>
       </c>
       <c r="AC3" t="n">
-        <v>1041.16580527729</v>
+        <v>1271.392826049831</v>
       </c>
       <c r="AD3" t="n">
-        <v>841236.7827557158</v>
+        <v>1027254.645882277</v>
       </c>
       <c r="AE3" t="n">
-        <v>1151017.27891394</v>
+        <v>1405535.125772634</v>
       </c>
       <c r="AF3" t="n">
         <v>6.527476779150594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.07552083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1041165.80527729</v>
+        <v>1271392.826049831</v>
       </c>
     </row>
     <row r="4">
@@ -25203,28 +25203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>844.4403486411464</v>
+        <v>1030.458211767707</v>
       </c>
       <c r="AB4" t="n">
-        <v>1155.400539089738</v>
+        <v>1409.918385948432</v>
       </c>
       <c r="AC4" t="n">
-        <v>1045.130733253854</v>
+        <v>1275.357754026396</v>
       </c>
       <c r="AD4" t="n">
-        <v>844440.3486411464</v>
+        <v>1030458.211767707</v>
       </c>
       <c r="AE4" t="n">
-        <v>1155400.539089738</v>
+        <v>1409918.385948432</v>
       </c>
       <c r="AF4" t="n">
         <v>6.533353859083802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.04296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1045130.733253854</v>
+        <v>1275357.754026396</v>
       </c>
     </row>
   </sheetData>
@@ -25500,28 +25500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>791.5042235588525</v>
+        <v>992.0597980882285</v>
       </c>
       <c r="AB2" t="n">
-        <v>1082.970997375128</v>
+        <v>1357.379982333716</v>
       </c>
       <c r="AC2" t="n">
-        <v>979.6137653449859</v>
+        <v>1227.833541914555</v>
       </c>
       <c r="AD2" t="n">
-        <v>791504.2235588524</v>
+        <v>992059.7980882284</v>
       </c>
       <c r="AE2" t="n">
-        <v>1082970.997375128</v>
+        <v>1357379.982333716</v>
       </c>
       <c r="AF2" t="n">
         <v>7.869881659567611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>979613.765344986</v>
+        <v>1227833.541914555</v>
       </c>
     </row>
   </sheetData>
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2273.346970462239</v>
+        <v>2581.132565775629</v>
       </c>
       <c r="AB2" t="n">
-        <v>3110.493617976627</v>
+        <v>3531.61944802657</v>
       </c>
       <c r="AC2" t="n">
-        <v>2813.632472682031</v>
+        <v>3194.566644565807</v>
       </c>
       <c r="AD2" t="n">
-        <v>2273346.970462239</v>
+        <v>2581132.565775629</v>
       </c>
       <c r="AE2" t="n">
-        <v>3110493.617976627</v>
+        <v>3531619.44802657</v>
       </c>
       <c r="AF2" t="n">
         <v>2.936367413333522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2813632.472682031</v>
+        <v>3194566.644565807</v>
       </c>
     </row>
     <row r="3">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1384.334601108901</v>
+        <v>1605.570445111116</v>
       </c>
       <c r="AB3" t="n">
-        <v>1894.107673769516</v>
+        <v>2196.81231576994</v>
       </c>
       <c r="AC3" t="n">
-        <v>1713.33669578177</v>
+        <v>1987.151631598307</v>
       </c>
       <c r="AD3" t="n">
-        <v>1384334.601108901</v>
+        <v>1605570.445111115</v>
       </c>
       <c r="AE3" t="n">
-        <v>1894107.673769516</v>
+        <v>2196812.31576994</v>
       </c>
       <c r="AF3" t="n">
         <v>4.044047157138422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.81770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1713336.695781769</v>
+        <v>1987151.631598307</v>
       </c>
     </row>
     <row r="4">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1185.618796833723</v>
+        <v>1387.613770451504</v>
       </c>
       <c r="AB4" t="n">
-        <v>1622.215943637658</v>
+        <v>1898.594377930807</v>
       </c>
       <c r="AC4" t="n">
-        <v>1467.393930771256</v>
+        <v>1717.395195195035</v>
       </c>
       <c r="AD4" t="n">
-        <v>1185618.796833723</v>
+        <v>1387613.770451504</v>
       </c>
       <c r="AE4" t="n">
-        <v>1622215.943637658</v>
+        <v>1898594.377930806</v>
       </c>
       <c r="AF4" t="n">
         <v>4.452711108861365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1467393.930771256</v>
+        <v>1717395.195195035</v>
       </c>
     </row>
     <row r="5">
@@ -26115,28 +26115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1085.37491717423</v>
+        <v>1277.749455599793</v>
       </c>
       <c r="AB5" t="n">
-        <v>1485.057845039689</v>
+        <v>1748.2731754792</v>
       </c>
       <c r="AC5" t="n">
-        <v>1343.326008600877</v>
+        <v>1581.420437328277</v>
       </c>
       <c r="AD5" t="n">
-        <v>1085374.91717423</v>
+        <v>1277749.455599793</v>
       </c>
       <c r="AE5" t="n">
-        <v>1485057.845039689</v>
+        <v>1748273.1754792</v>
       </c>
       <c r="AF5" t="n">
         <v>4.669848630893992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.80859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1343326.008600877</v>
+        <v>1581420.437328277</v>
       </c>
     </row>
     <row r="6">
@@ -26221,28 +26221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1020.572653194491</v>
+        <v>1212.913026201273</v>
       </c>
       <c r="AB6" t="n">
-        <v>1396.392528588493</v>
+        <v>1659.561112394756</v>
       </c>
       <c r="AC6" t="n">
-        <v>1263.12278550923</v>
+        <v>1501.17492903645</v>
       </c>
       <c r="AD6" t="n">
-        <v>1020572.653194491</v>
+        <v>1212913.026201273</v>
       </c>
       <c r="AE6" t="n">
-        <v>1396392.528588493</v>
+        <v>1659561.112394756</v>
       </c>
       <c r="AF6" t="n">
         <v>4.803471721375608e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.72786458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1263122.785509229</v>
+        <v>1501174.92903645</v>
       </c>
     </row>
     <row r="7">
@@ -26327,28 +26327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>987.7760082543043</v>
+        <v>1170.462791679946</v>
       </c>
       <c r="AB7" t="n">
-        <v>1351.518712095471</v>
+        <v>1601.478828750502</v>
       </c>
       <c r="AC7" t="n">
-        <v>1222.531663081505</v>
+        <v>1448.635937024207</v>
       </c>
       <c r="AD7" t="n">
-        <v>987776.0082543043</v>
+        <v>1170462.791679946</v>
       </c>
       <c r="AE7" t="n">
-        <v>1351518.712095471</v>
+        <v>1601478.828750502</v>
       </c>
       <c r="AF7" t="n">
         <v>4.869448122300906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.22005208333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1222531.663081505</v>
+        <v>1448635.937024207</v>
       </c>
     </row>
     <row r="8">
@@ -26433,28 +26433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>986.3520123762235</v>
+        <v>1169.038795801865</v>
       </c>
       <c r="AB8" t="n">
-        <v>1349.570338112816</v>
+        <v>1599.530454767847</v>
       </c>
       <c r="AC8" t="n">
-        <v>1220.769239177194</v>
+        <v>1446.873513119896</v>
       </c>
       <c r="AD8" t="n">
-        <v>986352.0123762235</v>
+        <v>1169038.795801865</v>
       </c>
       <c r="AE8" t="n">
-        <v>1349570.338112816</v>
+        <v>1599530.454767847</v>
       </c>
       <c r="AF8" t="n">
         <v>4.881418524156551e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.12890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1220769.239177194</v>
+        <v>1446873.513119896</v>
       </c>
     </row>
   </sheetData>
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3182.73822794936</v>
+        <v>3552.616225825494</v>
       </c>
       <c r="AB2" t="n">
-        <v>4354.762855981363</v>
+        <v>4860.846250541128</v>
       </c>
       <c r="AC2" t="n">
-        <v>3939.150400954392</v>
+        <v>4396.933906629861</v>
       </c>
       <c r="AD2" t="n">
-        <v>3182738.22794936</v>
+        <v>3552616.225825495</v>
       </c>
       <c r="AE2" t="n">
-        <v>4354762.855981363</v>
+        <v>4860846.250541128</v>
       </c>
       <c r="AF2" t="n">
         <v>2.245538068102077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.92317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3939150.400954392</v>
+        <v>4396933.90662986</v>
       </c>
     </row>
     <row r="3">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1697.159115038822</v>
+        <v>1940.431684217554</v>
       </c>
       <c r="AB3" t="n">
-        <v>2322.127974571974</v>
+        <v>2654.984236150611</v>
       </c>
       <c r="AC3" t="n">
-        <v>2100.507339805906</v>
+        <v>2401.596266946175</v>
       </c>
       <c r="AD3" t="n">
-        <v>1697159.115038822</v>
+        <v>1940431.684217555</v>
       </c>
       <c r="AE3" t="n">
-        <v>2322127.974571974</v>
+        <v>2654984.236150611</v>
       </c>
       <c r="AF3" t="n">
         <v>3.384280180155185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.39192708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2100507.339805906</v>
+        <v>2401596.266946175</v>
       </c>
     </row>
     <row r="4">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1408.387147745055</v>
+        <v>1632.220213726791</v>
       </c>
       <c r="AB4" t="n">
-        <v>1927.01742920057</v>
+        <v>2233.275704894722</v>
       </c>
       <c r="AC4" t="n">
-        <v>1743.105590343615</v>
+        <v>2020.135006041707</v>
       </c>
       <c r="AD4" t="n">
-        <v>1408387.147745055</v>
+        <v>1632220.213726791</v>
       </c>
       <c r="AE4" t="n">
-        <v>1927017.42920057</v>
+        <v>2233275.704894722</v>
       </c>
       <c r="AF4" t="n">
         <v>3.814421335801489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.9296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1743105.590343615</v>
+        <v>2020135.006041707</v>
       </c>
     </row>
     <row r="5">
@@ -27048,28 +27048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1286.611704886929</v>
+        <v>1491.040444120306</v>
       </c>
       <c r="AB5" t="n">
-        <v>1760.398895928704</v>
+        <v>2040.107315707274</v>
       </c>
       <c r="AC5" t="n">
-        <v>1592.388896036636</v>
+        <v>1845.402336804772</v>
       </c>
       <c r="AD5" t="n">
-        <v>1286611.704886929</v>
+        <v>1491040.444120306</v>
       </c>
       <c r="AE5" t="n">
-        <v>1760398.895928704</v>
+        <v>2040107.315707274</v>
       </c>
       <c r="AF5" t="n">
         <v>4.039553695043268e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.54036458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1592388.896036636</v>
+        <v>1845402.336804772</v>
       </c>
     </row>
     <row r="6">
@@ -27154,28 +27154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1212.644736996934</v>
+        <v>1407.269827629647</v>
       </c>
       <c r="AB6" t="n">
-        <v>1659.194027269295</v>
+        <v>1925.488662525984</v>
       </c>
       <c r="AC6" t="n">
-        <v>1500.842878000155</v>
+        <v>1741.722727014815</v>
       </c>
       <c r="AD6" t="n">
-        <v>1212644.736996934</v>
+        <v>1407269.827629647</v>
       </c>
       <c r="AE6" t="n">
-        <v>1659194.027269294</v>
+        <v>1925488.662525984</v>
       </c>
       <c r="AF6" t="n">
         <v>4.184443347471496e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.13411458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1500842.878000155</v>
+        <v>1741722.727014815</v>
       </c>
     </row>
     <row r="7">
@@ -27260,28 +27260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1155.299366776023</v>
+        <v>1340.222294034557</v>
       </c>
       <c r="AB7" t="n">
-        <v>1580.731561833862</v>
+        <v>1833.75126913276</v>
       </c>
       <c r="AC7" t="n">
-        <v>1429.868760143118</v>
+        <v>1658.740621692799</v>
       </c>
       <c r="AD7" t="n">
-        <v>1155299.366776023</v>
+        <v>1340222.294034557</v>
       </c>
       <c r="AE7" t="n">
-        <v>1580731.561833862</v>
+        <v>1833751.26913276</v>
       </c>
       <c r="AF7" t="n">
         <v>4.285312706193232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.21614583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1429868.760143118</v>
+        <v>1658740.621692799</v>
       </c>
     </row>
     <row r="8">
@@ -27366,28 +27366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1109.025314524856</v>
+        <v>1303.683559546492</v>
       </c>
       <c r="AB8" t="n">
-        <v>1517.417362076709</v>
+        <v>1783.757360630992</v>
       </c>
       <c r="AC8" t="n">
-        <v>1372.59717874875</v>
+        <v>1613.518061651549</v>
       </c>
       <c r="AD8" t="n">
-        <v>1109025.314524856</v>
+        <v>1303683.559546493</v>
       </c>
       <c r="AE8" t="n">
-        <v>1517417.362076709</v>
+        <v>1783757.360630992</v>
       </c>
       <c r="AF8" t="n">
         <v>4.352726641698032e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.62369791666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1372597.17874875</v>
+        <v>1613518.061651549</v>
       </c>
     </row>
     <row r="9">
@@ -27472,28 +27472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1075.965246780315</v>
+        <v>1260.854008620068</v>
       </c>
       <c r="AB9" t="n">
-        <v>1472.183118881375</v>
+        <v>1725.156079547026</v>
       </c>
       <c r="AC9" t="n">
-        <v>1331.680028237321</v>
+        <v>1560.509604586822</v>
       </c>
       <c r="AD9" t="n">
-        <v>1075965.246780315</v>
+        <v>1260854.008620068</v>
       </c>
       <c r="AE9" t="n">
-        <v>1472183.118881375</v>
+        <v>1725156.079547026</v>
       </c>
       <c r="AF9" t="n">
         <v>4.409072617642343e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.14192708333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1331680.028237321</v>
+        <v>1560509.604586822</v>
       </c>
     </row>
     <row r="10">
@@ -27578,28 +27578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1050.695328364019</v>
+        <v>1235.651410011476</v>
       </c>
       <c r="AB10" t="n">
-        <v>1437.607701674079</v>
+        <v>1690.672772270571</v>
       </c>
       <c r="AC10" t="n">
-        <v>1300.404440321386</v>
+        <v>1529.317335759206</v>
       </c>
       <c r="AD10" t="n">
-        <v>1050695.328364019</v>
+        <v>1235651.410011476</v>
       </c>
       <c r="AE10" t="n">
-        <v>1437607.701674079</v>
+        <v>1690672.772270571</v>
       </c>
       <c r="AF10" t="n">
         <v>4.435233249330774e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.92708333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1300404.440321386</v>
+        <v>1529317.335759206</v>
       </c>
     </row>
     <row r="11">
@@ -27684,28 +27684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1053.673275037122</v>
+        <v>1238.629356684579</v>
       </c>
       <c r="AB11" t="n">
-        <v>1441.682259689953</v>
+        <v>1694.747330286445</v>
       </c>
       <c r="AC11" t="n">
-        <v>1304.090128238903</v>
+        <v>1533.003023676723</v>
       </c>
       <c r="AD11" t="n">
-        <v>1053673.275037121</v>
+        <v>1238629.356684579</v>
       </c>
       <c r="AE11" t="n">
-        <v>1441682.259689953</v>
+        <v>1694747.330286445</v>
       </c>
       <c r="AF11" t="n">
         <v>4.434227071188911e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.93359375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1304090.128238903</v>
+        <v>1533003.023676723</v>
       </c>
     </row>
   </sheetData>
@@ -27981,28 +27981,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>808.866405307247</v>
+        <v>1025.476984666453</v>
       </c>
       <c r="AB2" t="n">
-        <v>1106.726700408681</v>
+        <v>1403.102851272266</v>
       </c>
       <c r="AC2" t="n">
-        <v>1001.102257422355</v>
+        <v>1269.192684414061</v>
       </c>
       <c r="AD2" t="n">
-        <v>808866.405307247</v>
+        <v>1025476.984666453</v>
       </c>
       <c r="AE2" t="n">
-        <v>1106726.700408681</v>
+        <v>1403102.851272266</v>
       </c>
       <c r="AF2" t="n">
         <v>8.434004585265973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1001102.257422355</v>
+        <v>1269192.684414061</v>
       </c>
     </row>
   </sheetData>
@@ -28278,28 +28278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1461.086620422342</v>
+        <v>1706.573259376938</v>
       </c>
       <c r="AB2" t="n">
-        <v>1999.123172654282</v>
+        <v>2335.008822178121</v>
       </c>
       <c r="AC2" t="n">
-        <v>1808.329662843151</v>
+        <v>2112.158857394906</v>
       </c>
       <c r="AD2" t="n">
-        <v>1461086.620422342</v>
+        <v>1706573.259376938</v>
       </c>
       <c r="AE2" t="n">
-        <v>1999123.172654282</v>
+        <v>2335008.822178121</v>
       </c>
       <c r="AF2" t="n">
         <v>4.277072592699639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.63802083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1808329.662843151</v>
+        <v>2112158.857394906</v>
       </c>
     </row>
     <row r="3">
@@ -28384,28 +28384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1025.346250270407</v>
+        <v>1223.617349922432</v>
       </c>
       <c r="AB3" t="n">
-        <v>1402.923974704001</v>
+        <v>1674.207240351479</v>
       </c>
       <c r="AC3" t="n">
-        <v>1269.030879574416</v>
+        <v>1514.423251096953</v>
       </c>
       <c r="AD3" t="n">
-        <v>1025346.250270407</v>
+        <v>1223617.349922432</v>
       </c>
       <c r="AE3" t="n">
-        <v>1402923.974704002</v>
+        <v>1674207.240351479</v>
       </c>
       <c r="AF3" t="n">
         <v>5.324050459005314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.68359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1269030.879574416</v>
+        <v>1514423.251096952</v>
       </c>
     </row>
     <row r="4">
@@ -28490,28 +28490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>907.8230969903245</v>
+        <v>1087.174826532396</v>
       </c>
       <c r="AB4" t="n">
-        <v>1242.123611630591</v>
+        <v>1487.520560429929</v>
       </c>
       <c r="AC4" t="n">
-        <v>1123.577077468005</v>
+        <v>1345.553685890715</v>
       </c>
       <c r="AD4" t="n">
-        <v>907823.0969903246</v>
+        <v>1087174.826532396</v>
       </c>
       <c r="AE4" t="n">
-        <v>1242123.611630591</v>
+        <v>1487520.560429929</v>
       </c>
       <c r="AF4" t="n">
         <v>5.678366133493888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.14453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1123577.077468005</v>
+        <v>1345553.685890715</v>
       </c>
     </row>
     <row r="5">
@@ -28596,28 +28596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>889.7763562937819</v>
+        <v>1078.570182666511</v>
       </c>
       <c r="AB5" t="n">
-        <v>1217.431264843573</v>
+        <v>1475.747307082529</v>
       </c>
       <c r="AC5" t="n">
-        <v>1101.241333602413</v>
+        <v>1334.904055318926</v>
       </c>
       <c r="AD5" t="n">
-        <v>889776.3562937819</v>
+        <v>1078570.182666511</v>
       </c>
       <c r="AE5" t="n">
-        <v>1217431.264843573</v>
+        <v>1475747.307082529</v>
       </c>
       <c r="AF5" t="n">
         <v>5.7152948094265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.89713541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1101241.333602413</v>
+        <v>1334904.055318926</v>
       </c>
     </row>
   </sheetData>
@@ -28893,28 +28893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1923.988257589149</v>
+        <v>2200.98026288721</v>
       </c>
       <c r="AB2" t="n">
-        <v>2632.485614404842</v>
+        <v>3011.478296078649</v>
       </c>
       <c r="AC2" t="n">
-        <v>2381.244882082808</v>
+        <v>2724.067034137123</v>
       </c>
       <c r="AD2" t="n">
-        <v>1923988.257589149</v>
+        <v>2200980.26288721</v>
       </c>
       <c r="AE2" t="n">
-        <v>2632485.614404842</v>
+        <v>3011478.296078649</v>
       </c>
       <c r="AF2" t="n">
         <v>3.383363030674957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2381244.882082808</v>
+        <v>2724067.034137123</v>
       </c>
     </row>
     <row r="3">
@@ -28999,28 +28999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1245.201284484056</v>
+        <v>1455.308654138259</v>
       </c>
       <c r="AB3" t="n">
-        <v>1703.739331834681</v>
+        <v>1991.217504278518</v>
       </c>
       <c r="AC3" t="n">
-        <v>1541.136841217549</v>
+        <v>1801.178500361495</v>
       </c>
       <c r="AD3" t="n">
-        <v>1245201.284484056</v>
+        <v>1455308.654138259</v>
       </c>
       <c r="AE3" t="n">
-        <v>1703739.331834681</v>
+        <v>1991217.504278518</v>
       </c>
       <c r="AF3" t="n">
         <v>4.472639439377506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.11848958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1541136.841217549</v>
+        <v>1801178.500361495</v>
       </c>
     </row>
     <row r="4">
@@ -29105,28 +29105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1074.097042315781</v>
+        <v>1274.682618409785</v>
       </c>
       <c r="AB4" t="n">
-        <v>1469.626959113635</v>
+        <v>1744.076993536523</v>
       </c>
       <c r="AC4" t="n">
-        <v>1329.367824770221</v>
+        <v>1577.624733100831</v>
       </c>
       <c r="AD4" t="n">
-        <v>1074097.04231578</v>
+        <v>1274682.618409785</v>
       </c>
       <c r="AE4" t="n">
-        <v>1469626.959113635</v>
+        <v>1744076.993536523</v>
       </c>
       <c r="AF4" t="n">
         <v>4.867528058578077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.62239583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1329367.824770221</v>
+        <v>1577624.733100831</v>
       </c>
     </row>
     <row r="5">
@@ -29211,28 +29211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>993.5902638263614</v>
+        <v>1175.066955051979</v>
       </c>
       <c r="AB5" t="n">
-        <v>1359.474033076012</v>
+        <v>1607.77844819747</v>
       </c>
       <c r="AC5" t="n">
-        <v>1229.727739393026</v>
+        <v>1454.334329632727</v>
       </c>
       <c r="AD5" t="n">
-        <v>993590.2638263614</v>
+        <v>1175066.955051979</v>
       </c>
       <c r="AE5" t="n">
-        <v>1359474.033076012</v>
+        <v>1607778.44819747</v>
       </c>
       <c r="AF5" t="n">
         <v>5.070749058406728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.03385416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1229727.739393026</v>
+        <v>1454334.329632727</v>
       </c>
     </row>
     <row r="6">
@@ -29317,28 +29317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>947.3639949819926</v>
+        <v>1128.806520788829</v>
       </c>
       <c r="AB6" t="n">
-        <v>1296.225212684096</v>
+        <v>1544.482881172306</v>
       </c>
       <c r="AC6" t="n">
-        <v>1172.515297649037</v>
+        <v>1397.079602688559</v>
       </c>
       <c r="AD6" t="n">
-        <v>947363.9949819926</v>
+        <v>1128806.520788829</v>
       </c>
       <c r="AE6" t="n">
-        <v>1296225.212684096</v>
+        <v>1544482.881172306</v>
       </c>
       <c r="AF6" t="n">
         <v>5.164064823634169e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.35026041666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1172515.297649037</v>
+        <v>1397079.602688559</v>
       </c>
     </row>
     <row r="7">
@@ -29423,28 +29423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>949.9750605622992</v>
+        <v>1131.417586369136</v>
       </c>
       <c r="AB7" t="n">
-        <v>1299.797787803155</v>
+        <v>1548.055456291365</v>
       </c>
       <c r="AC7" t="n">
-        <v>1175.746911212874</v>
+        <v>1400.311216252396</v>
       </c>
       <c r="AD7" t="n">
-        <v>949975.0605622992</v>
+        <v>1131417.586369136</v>
       </c>
       <c r="AE7" t="n">
-        <v>1299797.787803155</v>
+        <v>1548055.456291365</v>
       </c>
       <c r="AF7" t="n">
         <v>5.161398658913386e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.36979166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1175746.911212874</v>
+        <v>1400311.216252395</v>
       </c>
     </row>
   </sheetData>
